--- a/results/2013.09.02_date_2011_sl_comparison/review.xlsx
+++ b/results/2013.09.02_date_2011_sl_comparison/review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Path_cnt</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Nvidia Tesla C2050</t>
   </si>
   <si>
-    <t>FPGA (non I/O)</t>
-  </si>
-  <si>
     <t>65 nm</t>
   </si>
   <si>
@@ -86,6 +83,15 @@
   </si>
   <si>
     <t>40 nm</t>
+  </si>
+  <si>
+    <t>66 nm</t>
+  </si>
+  <si>
+    <t>Core 2 Duo + ML502</t>
+  </si>
+  <si>
+    <t>FPGA (non I/O bound)</t>
   </si>
 </sst>
 </file>
@@ -472,12 +478,12 @@
   <dimension ref="A2:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -488,7 +494,7 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -557,10 +563,10 @@
         <v>7.8885253906249993E-6</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -588,6 +594,15 @@
         <f t="shared" ref="F10" si="1">C10/B$6</f>
         <v>2.455322265625E-7</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -612,7 +627,7 @@
         <v>2.1020507812500001E-8</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -620,7 +635,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4">
         <f>B6/E12</f>
@@ -641,6 +656,12 @@
         <f>C12/B$6</f>
         <v>1E-8</v>
       </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -665,10 +686,10 @@
         <v>2.9970703125000001E-6</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
@@ -697,7 +718,7 @@
         <v>8.9653320312500001E-7</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
         <v>16</v>

--- a/results/2013.09.02_date_2011_sl_comparison/review.xlsx
+++ b/results/2013.09.02_date_2011_sl_comparison/review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Path_cnt</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>40 nm</t>
-  </si>
-  <si>
-    <t>66 nm</t>
   </si>
   <si>
     <t>Core 2 Duo + ML502</t>
@@ -173,7 +170,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -189,9 +186,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -229,7 +226,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -301,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -478,10 +475,10 @@
   <dimension ref="A2:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -601,7 +598,7 @@
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -635,7 +632,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="4">
         <f>B6/E12</f>
@@ -657,7 +654,7 @@
         <v>1E-8</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>

--- a/results/2013.09.02_date_2011_sl_comparison/review.xlsx
+++ b/results/2013.09.02_date_2011_sl_comparison/review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="6750" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Path_cnt</t>
   </si>
@@ -89,6 +89,33 @@
   </si>
   <si>
     <t>FPGA (non I/O bound)</t>
+  </si>
+  <si>
+    <t>Heston Accelerator</t>
+  </si>
+  <si>
+    <t>LUTs</t>
+  </si>
+  <si>
+    <t>FFs</t>
+  </si>
+  <si>
+    <t>BRAMs</t>
+  </si>
+  <si>
+    <t>DSPs</t>
+  </si>
+  <si>
+    <t>Frequency 100 MHz</t>
+  </si>
+  <si>
+    <t>ICDF Gauss</t>
+  </si>
+  <si>
+    <t>Mersenne Twister</t>
+  </si>
+  <si>
+    <t>Heston Kernel</t>
   </si>
 </sst>
 </file>
@@ -143,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -168,9 +195,12 @@
     <xf numFmtId="48" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -186,9 +216,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,7 +256,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -298,7 +328,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,13 +502,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K21"/>
+  <dimension ref="A2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -738,38 +768,163 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5481</v>
+      </c>
+      <c r="C20" s="10">
+        <v>6950</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2">
+        <v>100</v>
+      </c>
+      <c r="C21" s="10">
+        <v>100</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2">
+        <v>412</v>
+      </c>
+      <c r="C22" s="10">
+        <v>231</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2">
+        <f>B20-SUM(B21:B22)</f>
+        <v>4969</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" ref="C23:E23" si="3">C20-SUM(C21:C22)</f>
+        <v>6619</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>